--- a/src/main/resources/TestData.xlsx
+++ b/src/main/resources/TestData.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arya Vijayan\IdeaProjects\QALegendBilling\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C57B15B-09A0-4162-8768-2124F456AF48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10BD41F7-9B0D-413D-984C-C120225DAFF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="14220" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
-    <sheet name="ResetPage" sheetId="2" r:id="rId2"/>
-    <sheet name="HomePage" sheetId="3" r:id="rId3"/>
+    <sheet name="UserPage" sheetId="4" r:id="rId2"/>
+    <sheet name="AddUser" sheetId="5" r:id="rId3"/>
+    <sheet name="ResetPage" sheetId="2" r:id="rId4"/>
+    <sheet name="HomePage" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>Title</t>
   </si>
@@ -66,6 +68,36 @@
   </si>
   <si>
     <t>Home - las</t>
+  </si>
+  <si>
+    <t>Users - las</t>
+  </si>
+  <si>
+    <t>Prefix</t>
+  </si>
+  <si>
+    <t>Mrs</t>
+  </si>
+  <si>
+    <t>percentage</t>
+  </si>
+  <si>
+    <t>No matching records found</t>
+  </si>
+  <si>
+    <t>No matching records message</t>
+  </si>
+  <si>
+    <t>This field required</t>
+  </si>
+  <si>
+    <t>This field is required.</t>
+  </si>
+  <si>
+    <t>Add user - las</t>
+  </si>
+  <si>
+    <t>Add user title</t>
   </si>
 </sst>
 </file>
@@ -110,7 +142,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -118,7 +150,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -402,7 +433,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -454,6 +487,88 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB7BB3BE-ABB0-4684-A4BA-85DA0C3C324C}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F7:F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13.26953125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.90625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B87C742F-9274-4468-8B28-245EFA6E7E95}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="4" width="8.7265625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="1">
+        <v>70</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DF08A4A-76CF-42CE-81D7-995B5C03FCF2}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -481,26 +596,26 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CAD831C-8CE9-4385-9E87-D032B4A314D0}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11" style="3" customWidth="1"/>
+    <col min="1" max="1" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+      <c r="A2" t="s">
         <v>12</v>
       </c>
     </row>

--- a/src/main/resources/TestData.xlsx
+++ b/src/main/resources/TestData.xlsx
@@ -8,16 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arya Vijayan\IdeaProjects\QALegendBilling\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10BD41F7-9B0D-413D-984C-C120225DAFF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60A3C7D6-C960-42A4-80FD-6AEC89BA7B85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="14220" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="14220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
     <sheet name="UserPage" sheetId="4" r:id="rId2"/>
     <sheet name="AddUser" sheetId="5" r:id="rId3"/>
-    <sheet name="ResetPage" sheetId="2" r:id="rId4"/>
-    <sheet name="HomePage" sheetId="3" r:id="rId5"/>
+    <sheet name="RolesPage" sheetId="7" r:id="rId4"/>
+    <sheet name="EditUserPage" sheetId="6" r:id="rId5"/>
+    <sheet name="ResetPage" sheetId="2" r:id="rId6"/>
+    <sheet name="HomePage" sheetId="3" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
   <si>
     <t>Title</t>
   </si>
@@ -98,6 +100,39 @@
   </si>
   <si>
     <t>Add user title</t>
+  </si>
+  <si>
+    <t>Edit user title</t>
+  </si>
+  <si>
+    <t>Edit user - las</t>
+  </si>
+  <si>
+    <t>No records found</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>Roles - las</t>
+  </si>
+  <si>
+    <t>InvalidUsername</t>
+  </si>
+  <si>
+    <t>InvalidPassword</t>
+  </si>
+  <si>
+    <t>aryav@1234</t>
+  </si>
+  <si>
+    <t>arya123</t>
+  </si>
+  <si>
+    <t>aryav123</t>
   </si>
 </sst>
 </file>
@@ -431,19 +466,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="15.7265625" style="1" customWidth="1"/>
     <col min="2" max="5" width="29.90625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7265625" style="1"/>
+    <col min="7" max="7" width="26.7265625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -459,8 +496,14 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -475,6 +518,28 @@
       </c>
       <c r="E2" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="F3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="F4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -491,7 +556,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F7:F8"/>
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -524,18 +589,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B87C742F-9274-4468-8B28-245EFA6E7E95}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="4" width="8.7265625" style="1"/>
+    <col min="5" max="5" width="14.81640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -548,8 +614,14 @@
       <c r="D1" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="E1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -561,6 +633,38 @@
       </c>
       <c r="D2" s="1" t="s">
         <v>21</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B88D3550-9A7D-436D-BCF4-3261C9077A92}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -568,7 +672,32 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DEF1ABD-E5BF-429D-9BFD-995606B10C6C}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DF08A4A-76CF-42CE-81D7-995B5C03FCF2}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -596,7 +725,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CAD831C-8CE9-4385-9E87-D032B4A314D0}">
   <dimension ref="A1:A2"/>
   <sheetViews>
